--- a/Sexto Semestre ESCOM/Administración de proyectos/Plan de negocios/Estado de resultados para práctica de taller en proyectos.xlsx
+++ b/Sexto Semestre ESCOM/Administración de proyectos/Plan de negocios/Estado de resultados para práctica de taller en proyectos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BrandMV\Documents\ESCOM\Sexto Semestre ESCOM\Administración de proyectos\Plan de negocios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046F541D-BBFB-4389-BB53-B48904942171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF5879A-6923-4B9D-B2CB-F1AAB2B11359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D2822CF9-5652-4C74-AA86-80E678432B73}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D2822CF9-5652-4C74-AA86-80E678432B73}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Concepto</t>
   </si>
@@ -110,18 +110,16 @@
     <t>-Gastos de envío</t>
   </si>
   <si>
-    <t>*2023 no nos pagamos sueldo, no hay GV y GA</t>
-  </si>
-  <si>
-    <t>-Gastos de mantenimiento</t>
+    <t>*2022 no nos pagamos sueldo, usamos técnica de bootstraping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -195,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -226,6 +224,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -644,33 +646,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9AAB39-5B21-4104-8DCE-203FB3086ACD}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
+    <col min="6" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,131 +699,142 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>261600</v>
-      </c>
-      <c r="C3" s="4">
-        <v>614498</v>
+        <v>272500</v>
+      </c>
+      <c r="C3" s="15">
+        <v>904090</v>
       </c>
       <c r="D3" s="4">
-        <v>1322214</v>
+        <v>2929213</v>
       </c>
       <c r="E3" s="4">
-        <v>2742040</v>
+        <v>6327153</v>
       </c>
       <c r="F3" s="4">
-        <v>7112084</v>
+        <v>13666591</v>
       </c>
       <c r="G3" s="4">
-        <v>10834510</v>
+        <v>29519585</v>
       </c>
       <c r="H3" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J3" s="14">
+        <f>C3*0.8</f>
+        <v>723272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="13">
-        <v>556870</v>
+        <v>329518</v>
       </c>
       <c r="C4" s="3">
-        <v>1302735</v>
+        <f>C3*0.8</f>
+        <v>723272</v>
       </c>
       <c r="D4" s="3">
-        <v>2803093</v>
+        <f t="shared" ref="D4:G4" si="0">D3*0.8</f>
+        <v>2343370.4</v>
       </c>
       <c r="E4" s="3">
-        <f>E3*$I$5</f>
-        <v>3071084.8000000003</v>
+        <f t="shared" si="0"/>
+        <v>5061722.4000000004</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:G4" si="0">F3*$I$5</f>
-        <v>7965534.080000001</v>
+        <f t="shared" si="0"/>
+        <v>10933272.800000001</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>12134651.200000001</v>
-      </c>
-      <c r="H4">
-        <v>212.87</v>
+        <v>23615668</v>
+      </c>
+      <c r="H4" s="16">
+        <f>(B4*100)/B3</f>
+        <v>120.9240366972477</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4">
         <f>B3-B4</f>
-        <v>-295270</v>
+        <v>-57018</v>
       </c>
       <c r="C5" s="4">
         <f>C3-C4</f>
-        <v>-688237</v>
+        <v>180818</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:G5" si="1">D3-D4</f>
-        <v>-1480879</v>
+        <v>585842.60000000009</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>-329044.80000000028</v>
+        <v>1265430.5999999996</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>-853450.08000000101</v>
+        <v>2733318.1999999993</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>-1300141.2000000011</v>
-      </c>
-      <c r="H5">
-        <v>112.87</v>
+        <v>5903917</v>
+      </c>
+      <c r="H5" s="16">
+        <f>-(B5*100)/B3</f>
+        <v>20.924036697247708</v>
       </c>
       <c r="I5">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>285000</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>239000</v>
+      </c>
       <c r="D6" s="3">
-        <f>D3*$I$6</f>
-        <v>2036209.56</v>
+        <f>C6+(C6*0.05)</f>
+        <v>250950</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" ref="E6:G6" si="2">E3*$I$6</f>
-        <v>4222741.6000000006</v>
+        <f t="shared" ref="E6:G6" si="2">D6+(D6*0.05)</f>
+        <v>263497.5</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="2"/>
-        <v>10952609.359999999</v>
+        <v>276672.375</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="2"/>
-        <v>16685145.4</v>
-      </c>
-      <c r="H6">
-        <v>154.43</v>
+        <v>290505.99375000002</v>
+      </c>
+      <c r="H6" s="16">
+        <f>(B6*100)/B3</f>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>1.54</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -830,8 +844,11 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="3">
+        <v>239000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -845,7 +862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -853,11 +870,14 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>364000</v>
+      </c>
       <c r="L9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -866,38 +886,41 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>441000</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>364000</v>
+      </c>
       <c r="D11" s="4">
-        <f>D3*$I$11</f>
-        <v>2221319.52</v>
+        <f>C11+(C11*0.05)</f>
+        <v>382200</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" ref="E11:G11" si="3">E3*$I$11</f>
-        <v>4606627.2</v>
+        <f t="shared" ref="E11:G11" si="3">D11+(D11*0.05)</f>
+        <v>401310</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="3"/>
-        <v>11948301.119999999</v>
+        <v>421375.5</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="3"/>
-        <v>18201976.800000001</v>
-      </c>
-      <c r="H11">
-        <v>139.13999999999999</v>
+        <v>442444.27500000002</v>
+      </c>
+      <c r="H11" s="16">
+        <f>(B11*100)/B3</f>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1.68</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
@@ -908,10 +931,8 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>25</v>
-      </c>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -919,7 +940,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -928,7 +949,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -937,136 +958,160 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="5">
         <f>B5-B6-B11</f>
-        <v>-1021270</v>
+        <v>-57018</v>
       </c>
       <c r="C16" s="5">
         <f>C5-C6-C11</f>
-        <v>-688237</v>
+        <v>-422182</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" ref="D16:G16" si="4">D5-D6-D11</f>
-        <v>-5738408.0800000001</v>
+        <v>-47307.399999999907</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="4"/>
-        <v>-9158413.6000000015</v>
+        <v>600623.09999999963</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="4"/>
-        <v>-23754360.560000002</v>
+        <v>2035270.3249999993</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="4"/>
-        <v>-36187263.400000006</v>
-      </c>
-      <c r="H16">
-        <v>406.44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5170966.7312499993</v>
+      </c>
+      <c r="H16" s="17">
+        <f>-(B16*100)/B3</f>
+        <v>20.924036697247708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4">
+        <v>34317</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f>343175*0.1</f>
+        <v>34317.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="5">
         <f>B16-B17</f>
-        <v>-1021270</v>
+        <v>-91335</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" ref="C18:G18" si="5">C16-C17</f>
-        <v>-688237</v>
+        <v>-422182</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" si="5"/>
-        <v>-5738408.0800000001</v>
+        <v>-47307.399999999907</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="5"/>
-        <v>-9158413.6000000015</v>
+        <v>600623.09999999963</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="5"/>
-        <v>-23754360.560000002</v>
+        <v>2035270.3249999993</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="5"/>
-        <v>-36187263.400000006</v>
-      </c>
-      <c r="H18">
-        <v>406.44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5170966.7312499993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="4">
+        <f>E18*0.3</f>
+        <v>180186.92999999988</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" ref="F19:G19" si="6">F18*0.3</f>
+        <v>610581.0974999998</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="6"/>
+        <v>1551290.0193749997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="5">
+        <f>E18*0.1</f>
+        <v>60062.309999999969</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:G20" si="7">F18*0.1</f>
+        <v>203527.03249999994</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="7"/>
+        <v>517096.67312499997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="4">
         <f>B18</f>
-        <v>-1021270</v>
+        <v>-91335</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" ref="C21:G21" si="6">C18</f>
-        <v>-688237</v>
+        <f t="shared" ref="C21:D21" si="8">C18</f>
+        <v>-422182</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="6"/>
-        <v>-5738408.0800000001</v>
+        <f t="shared" si="8"/>
+        <v>-47307.399999999907</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="6"/>
-        <v>-9158413.6000000015</v>
+        <f>E18-E19-E20</f>
+        <v>360373.85999999975</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="6"/>
-        <v>-23754360.560000002</v>
+        <f t="shared" ref="F21" si="9">F18-F19-F20</f>
+        <v>1221162.1949999996</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="6"/>
-        <v>-36187263.400000006</v>
-      </c>
-      <c r="H21">
-        <v>406.44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <f>G18-G19-G20</f>
+        <v>3102580.0387499994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1074,36 +1119,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="H24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="E27" s="15" t="s">
+      <c r="C27" s="20"/>
+      <c r="E27" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="16"/>
+      <c r="F27" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
